--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,6 +413,26 @@
     <row r="13" spans="1:1">
       <c r="A13">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>57657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
